--- a/01_Requirements/LedgerTypes/022_Depreciation.xlsx
+++ b/01_Requirements/LedgerTypes/022_Depreciation.xlsx
@@ -203,6 +203,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,24 +230,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -238,12 +244,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,7 +531,7 @@
   <dimension ref="D2:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -552,182 +552,182 @@
     </row>
     <row r="3" spans="4:8" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="4" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="4:8" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="23" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="4:8" ht="24.95" customHeight="1">
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="7" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E21:H21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.31496062992126" footer="0.31496062992126"/>
